--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -12,7 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hola joni</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,12 +59,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>1+1</f>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -79,6 +79,17 @@
         <f>1+1</f>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C2">
+        <f>A2+B2</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
